--- a/biology/Zoologie/Isognathus_caricae/Isognathus_caricae.xlsx
+++ b/biology/Zoologie/Isognathus_caricae/Isognathus_caricae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isognathus caricae est  une espèce d’insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Dilophonotini.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago d’Isognathus caricae est un papillon de nuit[1] semblable aux espèces du genre Acherontia et surtout aux autres espèces du genre Isognathus. Elle s'en distingue par la bande marginale sombre de la face supérieure de l'aile postérieure, qui est remplacée par une série de stries noires le long des nervures.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago d’Isognathus caricae est un papillon de nuit semblable aux espèces du genre Acherontia et surtout aux autres espèces du genre Isognathus. Elle s'en distingue par la bande marginale sombre de la face supérieure de l'aile postérieure, qui est remplacée par une série de stries noires le long des nervures.
 Les chenilles sont très colorées, signalant par ce biais leur potentiel de toxicité aux prédateurs.
 	Exemples de spécimens de la collection du Muséum de Toulouse
 			Face dorsale du mâle
@@ -548,7 +562,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue au Costa Rica, en Guyane, en Bolivie, en Argentine, au Brésil et au Pérou.
@@ -581,7 +597,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est multivoltine, avec des adultes qui volent pendant tous les mois de l'année. Les chenilles se nourrissent sur Himatanthus obovatus, Allamanda cathartica et Allamanda schottii.
 </t>
@@ -612,14 +630,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Isognathus caricae a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Sphinx caricae[2].
-Synonymie
-Sphinx caricae Linnaeus, 1758  protonyme
-Sphinx cacus Cramer, 1775 [3]
-Taxinomie
-Liste des sous-espèces
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Isognathus caricae a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Sphinx caricae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Isognathus_caricae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isognathus_caricae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sphinx caricae Linnaeus, 1758  protonyme
+Sphinx cacus Cramer, 1775 </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Isognathus_caricae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isognathus_caricae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Isognathus caricae caricae (Costa Rica, Guyane,  Bolivie,  Argentine et Brésil)
 Isognathus caricae rainermarxi Eitschberger 1999 (Pérou)</t>
         </is>
